--- a/附件12.xlsx
+++ b/附件12.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="21555" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="Enrichment using ENCORI" sheetId="1" r:id="rId1"/>
-    <sheet name="Enrichment using SPONGEdb" sheetId="2" r:id="rId2"/>
+    <sheet name="Network enrichment by ENCORI" sheetId="1" r:id="rId1"/>
+    <sheet name="Network enrichment by SPONGEdb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -4792,7 +4792,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -5413,17 +5413,17 @@
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5792,85 +5792,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="Y1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AK1" s="6" t="s">
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AK1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AW1" s="6" t="s">
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AW1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BI1" s="6" t="s">
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BI1" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
     </row>
     <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
@@ -12982,7 +12982,7 @@
       <c r="BL42" s="2">
         <v>32</v>
       </c>
-      <c r="BM42" s="7" t="s">
+      <c r="BM42" s="6" t="s">
         <v>463</v>
       </c>
       <c r="BN42" s="2">
@@ -14730,7 +14730,7 @@
       <c r="BL55" s="2">
         <v>31</v>
       </c>
-      <c r="BM55" s="7" t="s">
+      <c r="BM55" s="6" t="s">
         <v>503</v>
       </c>
       <c r="BN55" s="2">
@@ -16248,7 +16248,7 @@
       <c r="BL78" s="2">
         <v>45</v>
       </c>
-      <c r="BM78" s="7" t="s">
+      <c r="BM78" s="6" t="s">
         <v>573</v>
       </c>
       <c r="BN78" s="2">
@@ -16286,7 +16286,7 @@
       <c r="BL79" s="2">
         <v>40</v>
       </c>
-      <c r="BM79" s="7" t="s">
+      <c r="BM79" s="6" t="s">
         <v>576</v>
       </c>
       <c r="BN79" s="2">
@@ -16400,7 +16400,7 @@
       <c r="BL82" s="2">
         <v>41</v>
       </c>
-      <c r="BM82" s="7" t="s">
+      <c r="BM82" s="6" t="s">
         <v>585</v>
       </c>
       <c r="BN82" s="2">
@@ -16514,7 +16514,7 @@
       <c r="BL85" s="2">
         <v>32</v>
       </c>
-      <c r="BM85" s="7" t="s">
+      <c r="BM85" s="6" t="s">
         <v>595</v>
       </c>
       <c r="BN85" s="2">
@@ -16742,7 +16742,7 @@
       <c r="BL91" s="2">
         <v>42</v>
       </c>
-      <c r="BM91" s="7" t="s">
+      <c r="BM91" s="6" t="s">
         <v>613</v>
       </c>
       <c r="BN91" s="2">
@@ -16856,7 +16856,7 @@
       <c r="BL94" s="2">
         <v>33</v>
       </c>
-      <c r="BM94" s="7" t="s">
+      <c r="BM94" s="6" t="s">
         <v>622</v>
       </c>
       <c r="BN94" s="2">
@@ -19619,12 +19619,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="BI1:BT1"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AW1:BG1"/>
-    <mergeCell ref="BI1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19655,85 +19655,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="Y1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AK1" s="6" t="s">
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AK1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AW1" s="6" t="s">
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AW1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BI1" s="6" t="s">
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BI1" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
     </row>
     <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
@@ -20116,7 +20116,7 @@
       <c r="BL3" s="2">
         <v>123</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BM3" s="6" t="s">
         <v>1006</v>
       </c>
       <c r="BN3" s="2">
@@ -20151,7 +20151,7 @@
       <c r="C4" s="2">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>859</v>
       </c>
       <c r="E4" s="2">
@@ -20319,7 +20319,7 @@
       <c r="BL4" s="2">
         <v>124</v>
       </c>
-      <c r="BM4" s="7" t="s">
+      <c r="BM4" s="6" t="s">
         <v>1008</v>
       </c>
       <c r="BN4" s="2">
@@ -20522,7 +20522,7 @@
       <c r="BL5" s="2">
         <v>103</v>
       </c>
-      <c r="BM5" s="7" t="s">
+      <c r="BM5" s="6" t="s">
         <v>1010</v>
       </c>
       <c r="BN5" s="2">
@@ -20725,7 +20725,7 @@
       <c r="BL6" s="2">
         <v>105</v>
       </c>
-      <c r="BM6" s="7" t="s">
+      <c r="BM6" s="6" t="s">
         <v>1012</v>
       </c>
       <c r="BN6" s="2">
@@ -20928,7 +20928,7 @@
       <c r="BL7" s="2">
         <v>114</v>
       </c>
-      <c r="BM7" s="7" t="s">
+      <c r="BM7" s="6" t="s">
         <v>1014</v>
       </c>
       <c r="BN7" s="2">
@@ -21131,7 +21131,7 @@
       <c r="BL8" s="2">
         <v>123</v>
       </c>
-      <c r="BM8" s="7" t="s">
+      <c r="BM8" s="6" t="s">
         <v>1016</v>
       </c>
       <c r="BN8" s="2">
@@ -21232,7 +21232,7 @@
       <c r="AA9" s="2">
         <v>107</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="6" t="s">
         <v>922</v>
       </c>
       <c r="AC9" s="2">
@@ -21334,7 +21334,7 @@
       <c r="BL9" s="2">
         <v>108</v>
       </c>
-      <c r="BM9" s="7" t="s">
+      <c r="BM9" s="6" t="s">
         <v>1018</v>
       </c>
       <c r="BN9" s="2">
@@ -21504,7 +21504,7 @@
       <c r="BL10" s="2">
         <v>107</v>
       </c>
-      <c r="BM10" s="7" t="s">
+      <c r="BM10" s="6" t="s">
         <v>1020</v>
       </c>
       <c r="BN10" s="2">
@@ -21674,7 +21674,7 @@
       <c r="BL11" s="2">
         <v>124</v>
       </c>
-      <c r="BM11" s="7" t="s">
+      <c r="BM11" s="6" t="s">
         <v>1022</v>
       </c>
       <c r="BN11" s="2">
@@ -21844,7 +21844,7 @@
       <c r="BL12" s="2">
         <v>110</v>
       </c>
-      <c r="BM12" s="7" t="s">
+      <c r="BM12" s="6" t="s">
         <v>1024</v>
       </c>
       <c r="BN12" s="2">
@@ -22014,7 +22014,7 @@
       <c r="BL13" s="2">
         <v>114</v>
       </c>
-      <c r="BM13" s="7" t="s">
+      <c r="BM13" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="BN13" s="2">
@@ -22184,7 +22184,7 @@
       <c r="BL14" s="2">
         <v>98</v>
       </c>
-      <c r="BM14" s="7" t="s">
+      <c r="BM14" s="6" t="s">
         <v>1028</v>
       </c>
       <c r="BN14" s="2">
@@ -22354,7 +22354,7 @@
       <c r="BL15" s="2">
         <v>102</v>
       </c>
-      <c r="BM15" s="7" t="s">
+      <c r="BM15" s="6" t="s">
         <v>1030</v>
       </c>
       <c r="BN15" s="2">
@@ -22524,7 +22524,7 @@
       <c r="BL16" s="2">
         <v>110</v>
       </c>
-      <c r="BM16" s="7" t="s">
+      <c r="BM16" s="6" t="s">
         <v>1032</v>
       </c>
       <c r="BN16" s="2">
@@ -22694,7 +22694,7 @@
       <c r="BL17" s="2">
         <v>112</v>
       </c>
-      <c r="BM17" s="7" t="s">
+      <c r="BM17" s="6" t="s">
         <v>1034</v>
       </c>
       <c r="BN17" s="2">
@@ -22864,7 +22864,7 @@
       <c r="BL18" s="2">
         <v>104</v>
       </c>
-      <c r="BM18" s="7" t="s">
+      <c r="BM18" s="6" t="s">
         <v>1036</v>
       </c>
       <c r="BN18" s="2">
@@ -23034,7 +23034,7 @@
       <c r="BL19" s="2">
         <v>103</v>
       </c>
-      <c r="BM19" s="7" t="s">
+      <c r="BM19" s="6" t="s">
         <v>1038</v>
       </c>
       <c r="BN19" s="2">
@@ -23171,7 +23171,7 @@
       <c r="BL20" s="2">
         <v>97</v>
       </c>
-      <c r="BM20" s="7" t="s">
+      <c r="BM20" s="6" t="s">
         <v>1040</v>
       </c>
       <c r="BN20" s="2">
@@ -23308,7 +23308,7 @@
       <c r="BL21" s="2">
         <v>102</v>
       </c>
-      <c r="BM21" s="7" t="s">
+      <c r="BM21" s="6" t="s">
         <v>1042</v>
       </c>
       <c r="BN21" s="2">
@@ -23445,7 +23445,7 @@
       <c r="BL22" s="2">
         <v>99</v>
       </c>
-      <c r="BM22" s="7" t="s">
+      <c r="BM22" s="6" t="s">
         <v>1044</v>
       </c>
       <c r="BN22" s="2">
@@ -23549,7 +23549,7 @@
       <c r="BL23" s="2">
         <v>108</v>
       </c>
-      <c r="BM23" s="7" t="s">
+      <c r="BM23" s="6" t="s">
         <v>1046</v>
       </c>
       <c r="BN23" s="2">
@@ -23653,7 +23653,7 @@
       <c r="BL24" s="2">
         <v>103</v>
       </c>
-      <c r="BM24" s="7" t="s">
+      <c r="BM24" s="6" t="s">
         <v>1048</v>
       </c>
       <c r="BN24" s="2">
@@ -23757,7 +23757,7 @@
       <c r="BL25" s="2">
         <v>101</v>
       </c>
-      <c r="BM25" s="7" t="s">
+      <c r="BM25" s="6" t="s">
         <v>1050</v>
       </c>
       <c r="BN25" s="2">
@@ -23861,7 +23861,7 @@
       <c r="BL26" s="2">
         <v>92</v>
       </c>
-      <c r="BM26" s="7" t="s">
+      <c r="BM26" s="6" t="s">
         <v>1052</v>
       </c>
       <c r="BN26" s="2">
@@ -23965,7 +23965,7 @@
       <c r="BL27" s="2">
         <v>94</v>
       </c>
-      <c r="BM27" s="7" t="s">
+      <c r="BM27" s="6" t="s">
         <v>1054</v>
       </c>
       <c r="BN27" s="2">
@@ -24069,7 +24069,7 @@
       <c r="BL28" s="2">
         <v>95</v>
       </c>
-      <c r="BM28" s="7" t="s">
+      <c r="BM28" s="6" t="s">
         <v>1056</v>
       </c>
       <c r="BN28" s="2">
@@ -24173,7 +24173,7 @@
       <c r="BL29" s="2">
         <v>83</v>
       </c>
-      <c r="BM29" s="7" t="s">
+      <c r="BM29" s="6" t="s">
         <v>1058</v>
       </c>
       <c r="BN29" s="2">
@@ -24277,7 +24277,7 @@
       <c r="BL30" s="2">
         <v>90</v>
       </c>
-      <c r="BM30" s="7" t="s">
+      <c r="BM30" s="6" t="s">
         <v>1060</v>
       </c>
       <c r="BN30" s="2">
@@ -24381,7 +24381,7 @@
       <c r="BL31" s="2">
         <v>89</v>
       </c>
-      <c r="BM31" s="7" t="s">
+      <c r="BM31" s="6" t="s">
         <v>1062</v>
       </c>
       <c r="BN31" s="2">
@@ -24485,7 +24485,7 @@
       <c r="BL32" s="2">
         <v>96</v>
       </c>
-      <c r="BM32" s="7" t="s">
+      <c r="BM32" s="6" t="s">
         <v>1064</v>
       </c>
       <c r="BN32" s="2">
@@ -24589,7 +24589,7 @@
       <c r="BL33" s="2">
         <v>98</v>
       </c>
-      <c r="BM33" s="7" t="s">
+      <c r="BM33" s="6" t="s">
         <v>1066</v>
       </c>
       <c r="BN33" s="2">
@@ -24693,7 +24693,7 @@
       <c r="BL34" s="2">
         <v>87</v>
       </c>
-      <c r="BM34" s="7" t="s">
+      <c r="BM34" s="6" t="s">
         <v>1068</v>
       </c>
       <c r="BN34" s="2">
@@ -24764,7 +24764,7 @@
       <c r="BL35" s="2">
         <v>84</v>
       </c>
-      <c r="BM35" s="7" t="s">
+      <c r="BM35" s="6" t="s">
         <v>1070</v>
       </c>
       <c r="BN35" s="2">
@@ -24835,7 +24835,7 @@
       <c r="BL36" s="2">
         <v>94</v>
       </c>
-      <c r="BM36" s="7" t="s">
+      <c r="BM36" s="6" t="s">
         <v>1072</v>
       </c>
       <c r="BN36" s="2">
@@ -24874,7 +24874,7 @@
       <c r="BL37" s="2">
         <v>79</v>
       </c>
-      <c r="BM37" s="7" t="s">
+      <c r="BM37" s="6" t="s">
         <v>1074</v>
       </c>
       <c r="BN37" s="2">
@@ -24913,7 +24913,7 @@
       <c r="BL38" s="2">
         <v>80</v>
       </c>
-      <c r="BM38" s="7" t="s">
+      <c r="BM38" s="6" t="s">
         <v>1076</v>
       </c>
       <c r="BN38" s="2">
@@ -24952,7 +24952,7 @@
       <c r="BL39" s="2">
         <v>93</v>
       </c>
-      <c r="BM39" s="7" t="s">
+      <c r="BM39" s="6" t="s">
         <v>1078</v>
       </c>
       <c r="BN39" s="2">
@@ -24991,7 +24991,7 @@
       <c r="BL40" s="2">
         <v>81</v>
       </c>
-      <c r="BM40" s="7" t="s">
+      <c r="BM40" s="6" t="s">
         <v>1080</v>
       </c>
       <c r="BN40" s="2">
@@ -25030,7 +25030,7 @@
       <c r="BL41" s="2">
         <v>76</v>
       </c>
-      <c r="BM41" s="7" t="s">
+      <c r="BM41" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="BN41" s="2">
@@ -25070,7 +25070,7 @@
       <c r="BL42" s="2">
         <v>74</v>
       </c>
-      <c r="BM42" s="7" t="s">
+      <c r="BM42" s="6" t="s">
         <v>1084</v>
       </c>
       <c r="BN42" s="2">
@@ -25110,7 +25110,7 @@
       <c r="BL43" s="2">
         <v>71</v>
       </c>
-      <c r="BM43" s="7" t="s">
+      <c r="BM43" s="6" t="s">
         <v>1086</v>
       </c>
       <c r="BN43" s="2">
@@ -25150,7 +25150,7 @@
       <c r="BL44" s="2">
         <v>68</v>
       </c>
-      <c r="BM44" s="7" t="s">
+      <c r="BM44" s="6" t="s">
         <v>1088</v>
       </c>
       <c r="BN44" s="2">
@@ -25189,7 +25189,7 @@
       <c r="BL45" s="2">
         <v>67</v>
       </c>
-      <c r="BM45" s="7" t="s">
+      <c r="BM45" s="6" t="s">
         <v>1090</v>
       </c>
       <c r="BN45" s="2">
@@ -25228,7 +25228,7 @@
       <c r="BL46" s="2">
         <v>60</v>
       </c>
-      <c r="BM46" s="7" t="s">
+      <c r="BM46" s="6" t="s">
         <v>1092</v>
       </c>
       <c r="BN46" s="2">
@@ -25268,7 +25268,7 @@
       <c r="BL47" s="2">
         <v>68</v>
       </c>
-      <c r="BM47" s="7" t="s">
+      <c r="BM47" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="BN47" s="2">
@@ -25307,7 +25307,7 @@
       <c r="BL48" s="2">
         <v>66</v>
       </c>
-      <c r="BM48" s="7" t="s">
+      <c r="BM48" s="6" t="s">
         <v>1096</v>
       </c>
       <c r="BN48" s="2">
@@ -25346,7 +25346,7 @@
       <c r="BL49" s="2">
         <v>56</v>
       </c>
-      <c r="BM49" s="7" t="s">
+      <c r="BM49" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="BN49" s="2">
@@ -25385,7 +25385,7 @@
       <c r="BL50" s="2">
         <v>61</v>
       </c>
-      <c r="BM50" s="7" t="s">
+      <c r="BM50" s="6" t="s">
         <v>1100</v>
       </c>
       <c r="BN50" s="2">
@@ -25424,7 +25424,7 @@
       <c r="BL51" s="2">
         <v>45</v>
       </c>
-      <c r="BM51" s="7" t="s">
+      <c r="BM51" s="6" t="s">
         <v>1102</v>
       </c>
       <c r="BN51" s="2">
@@ -25464,7 +25464,7 @@
       <c r="BL52" s="2">
         <v>58</v>
       </c>
-      <c r="BM52" s="7" t="s">
+      <c r="BM52" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="BN52" s="2">
@@ -25503,7 +25503,7 @@
       <c r="BL53" s="2">
         <v>58</v>
       </c>
-      <c r="BM53" s="7" t="s">
+      <c r="BM53" s="6" t="s">
         <v>1106</v>
       </c>
       <c r="BN53" s="2">
@@ -25542,7 +25542,7 @@
       <c r="BL54" s="2">
         <v>62</v>
       </c>
-      <c r="BM54" s="7" t="s">
+      <c r="BM54" s="6" t="s">
         <v>1108</v>
       </c>
       <c r="BN54" s="2">
@@ -25581,7 +25581,7 @@
       <c r="BL55" s="2">
         <v>66</v>
       </c>
-      <c r="BM55" s="7" t="s">
+      <c r="BM55" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="BN55" s="2">
@@ -25620,7 +25620,7 @@
       <c r="BL56" s="2">
         <v>54</v>
       </c>
-      <c r="BM56" s="7" t="s">
+      <c r="BM56" s="6" t="s">
         <v>1112</v>
       </c>
       <c r="BN56" s="2">
@@ -25660,7 +25660,7 @@
       <c r="BL57" s="2">
         <v>40</v>
       </c>
-      <c r="BM57" s="7" t="s">
+      <c r="BM57" s="6" t="s">
         <v>1114</v>
       </c>
       <c r="BN57" s="2">
@@ -25699,7 +25699,7 @@
       <c r="BL58" s="2">
         <v>53</v>
       </c>
-      <c r="BM58" s="7" t="s">
+      <c r="BM58" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="BN58" s="2">
@@ -25739,7 +25739,7 @@
       <c r="BL59" s="2">
         <v>61</v>
       </c>
-      <c r="BM59" s="7" t="s">
+      <c r="BM59" s="6" t="s">
         <v>1118</v>
       </c>
       <c r="BN59" s="2">
@@ -25779,7 +25779,7 @@
       <c r="BL60" s="2">
         <v>53</v>
       </c>
-      <c r="BM60" s="7" t="s">
+      <c r="BM60" s="6" t="s">
         <v>1120</v>
       </c>
       <c r="BN60" s="2">
@@ -25818,7 +25818,7 @@
       <c r="BL61" s="2">
         <v>51</v>
       </c>
-      <c r="BM61" s="7" t="s">
+      <c r="BM61" s="6" t="s">
         <v>1122</v>
       </c>
       <c r="BN61" s="2">
@@ -25857,7 +25857,7 @@
       <c r="BL62" s="2">
         <v>110</v>
       </c>
-      <c r="BM62" s="7" t="s">
+      <c r="BM62" s="6" t="s">
         <v>1124</v>
       </c>
       <c r="BN62" s="2">
@@ -25896,7 +25896,7 @@
       <c r="BL63" s="2">
         <v>56</v>
       </c>
-      <c r="BM63" s="7" t="s">
+      <c r="BM63" s="6" t="s">
         <v>1126</v>
       </c>
       <c r="BN63" s="2">
@@ -25936,7 +25936,7 @@
       <c r="BL64" s="2">
         <v>93</v>
       </c>
-      <c r="BM64" s="7" t="s">
+      <c r="BM64" s="6" t="s">
         <v>1128</v>
       </c>
       <c r="BN64" s="2">
@@ -25975,7 +25975,7 @@
       <c r="BL65" s="2">
         <v>107</v>
       </c>
-      <c r="BM65" s="7" t="s">
+      <c r="BM65" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="BN65" s="2">
@@ -26014,7 +26014,7 @@
       <c r="BL66" s="2">
         <v>50</v>
       </c>
-      <c r="BM66" s="7" t="s">
+      <c r="BM66" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="BN66" s="2">
@@ -26054,7 +26054,7 @@
       <c r="BL67" s="2">
         <v>49</v>
       </c>
-      <c r="BM67" s="7" t="s">
+      <c r="BM67" s="6" t="s">
         <v>1134</v>
       </c>
       <c r="BN67" s="2">
@@ -26093,7 +26093,7 @@
       <c r="BL68" s="2">
         <v>49</v>
       </c>
-      <c r="BM68" s="7" t="s">
+      <c r="BM68" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="BN68" s="2">
@@ -26132,7 +26132,7 @@
       <c r="BL69" s="2">
         <v>39</v>
       </c>
-      <c r="BM69" s="7" t="s">
+      <c r="BM69" s="6" t="s">
         <v>1138</v>
       </c>
       <c r="BN69" s="2">
@@ -26171,7 +26171,7 @@
       <c r="BL70" s="2">
         <v>43</v>
       </c>
-      <c r="BM70" s="7" t="s">
+      <c r="BM70" s="6" t="s">
         <v>1140</v>
       </c>
       <c r="BN70" s="2">
@@ -26210,7 +26210,7 @@
       <c r="BL71" s="2">
         <v>40</v>
       </c>
-      <c r="BM71" s="7" t="s">
+      <c r="BM71" s="6" t="s">
         <v>1142</v>
       </c>
       <c r="BN71" s="2">
@@ -26249,7 +26249,7 @@
       <c r="BL72" s="2">
         <v>43</v>
       </c>
-      <c r="BM72" s="7" t="s">
+      <c r="BM72" s="6" t="s">
         <v>1144</v>
       </c>
       <c r="BN72" s="2">
@@ -26288,7 +26288,7 @@
       <c r="BL73" s="2">
         <v>29</v>
       </c>
-      <c r="BM73" s="7" t="s">
+      <c r="BM73" s="6" t="s">
         <v>1146</v>
       </c>
       <c r="BN73" s="2">
@@ -26327,7 +26327,7 @@
       <c r="BL74" s="2">
         <v>156</v>
       </c>
-      <c r="BM74" s="7" t="s">
+      <c r="BM74" s="6" t="s">
         <v>1148</v>
       </c>
       <c r="BN74" s="2">
@@ -26366,7 +26366,7 @@
       <c r="BL75" s="2">
         <v>75</v>
       </c>
-      <c r="BM75" s="7" t="s">
+      <c r="BM75" s="6" t="s">
         <v>1150</v>
       </c>
       <c r="BN75" s="2">
@@ -26406,7 +26406,7 @@
       <c r="BL76" s="2">
         <v>32</v>
       </c>
-      <c r="BM76" s="7" t="s">
+      <c r="BM76" s="6" t="s">
         <v>1152</v>
       </c>
       <c r="BN76" s="2">
@@ -26445,7 +26445,7 @@
       <c r="BL77" s="2">
         <v>41</v>
       </c>
-      <c r="BM77" s="7" t="s">
+      <c r="BM77" s="6" t="s">
         <v>1154</v>
       </c>
       <c r="BN77" s="2">
@@ -26484,7 +26484,7 @@
       <c r="BL78" s="2">
         <v>52</v>
       </c>
-      <c r="BM78" s="7" t="s">
+      <c r="BM78" s="6" t="s">
         <v>1156</v>
       </c>
       <c r="BN78" s="2">
@@ -26523,7 +26523,7 @@
       <c r="BL79" s="2">
         <v>133</v>
       </c>
-      <c r="BM79" s="7" t="s">
+      <c r="BM79" s="6" t="s">
         <v>1158</v>
       </c>
       <c r="BN79" s="2">
@@ -26563,7 +26563,7 @@
       <c r="BL80" s="2">
         <v>201</v>
       </c>
-      <c r="BM80" s="7" t="s">
+      <c r="BM80" s="6" t="s">
         <v>1160</v>
       </c>
       <c r="BN80" s="2">
@@ -26603,7 +26603,7 @@
       <c r="BL81" s="2">
         <v>83</v>
       </c>
-      <c r="BM81" s="7" t="s">
+      <c r="BM81" s="6" t="s">
         <v>1162</v>
       </c>
       <c r="BN81" s="2">
@@ -26643,7 +26643,7 @@
       <c r="BL82" s="2">
         <v>77</v>
       </c>
-      <c r="BM82" s="7" t="s">
+      <c r="BM82" s="6" t="s">
         <v>1164</v>
       </c>
       <c r="BN82" s="2">
@@ -26682,7 +26682,7 @@
       <c r="BL83" s="2">
         <v>40</v>
       </c>
-      <c r="BM83" s="7" t="s">
+      <c r="BM83" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="BN83" s="2">
@@ -26721,7 +26721,7 @@
       <c r="BL84" s="2">
         <v>190</v>
       </c>
-      <c r="BM84" s="7" t="s">
+      <c r="BM84" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="BN84" s="2">
@@ -26760,7 +26760,7 @@
       <c r="BL85" s="2">
         <v>33</v>
       </c>
-      <c r="BM85" s="7" t="s">
+      <c r="BM85" s="6" t="s">
         <v>1171</v>
       </c>
       <c r="BN85" s="2">
@@ -26799,7 +26799,7 @@
       <c r="BL86" s="2">
         <v>33</v>
       </c>
-      <c r="BM86" s="7" t="s">
+      <c r="BM86" s="6" t="s">
         <v>1173</v>
       </c>
       <c r="BN86" s="2">
@@ -26838,7 +26838,7 @@
       <c r="BL87" s="2">
         <v>31</v>
       </c>
-      <c r="BM87" s="7" t="s">
+      <c r="BM87" s="6" t="s">
         <v>1175</v>
       </c>
       <c r="BN87" s="2">
@@ -26877,7 +26877,7 @@
       <c r="BL88" s="2">
         <v>54</v>
       </c>
-      <c r="BM88" s="7" t="s">
+      <c r="BM88" s="6" t="s">
         <v>1177</v>
       </c>
       <c r="BN88" s="2">
@@ -26956,7 +26956,7 @@
       <c r="BL90" s="2">
         <v>31</v>
       </c>
-      <c r="BM90" s="7" t="s">
+      <c r="BM90" s="6" t="s">
         <v>1181</v>
       </c>
       <c r="BN90" s="2">
@@ -26995,7 +26995,7 @@
       <c r="BL91" s="2">
         <v>32</v>
       </c>
-      <c r="BM91" s="7" t="s">
+      <c r="BM91" s="6" t="s">
         <v>1183</v>
       </c>
       <c r="BN91" s="2">
@@ -27073,7 +27073,7 @@
       <c r="BL93" s="2">
         <v>32</v>
       </c>
-      <c r="BM93" s="7" t="s">
+      <c r="BM93" s="6" t="s">
         <v>1187</v>
       </c>
       <c r="BN93" s="2">
@@ -27112,7 +27112,7 @@
       <c r="BL94" s="2">
         <v>31</v>
       </c>
-      <c r="BM94" s="7" t="s">
+      <c r="BM94" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="BN94" s="2">
@@ -27151,7 +27151,7 @@
       <c r="BL95" s="2">
         <v>90</v>
       </c>
-      <c r="BM95" s="7" t="s">
+      <c r="BM95" s="6" t="s">
         <v>1191</v>
       </c>
       <c r="BN95" s="2">
@@ -27190,7 +27190,7 @@
       <c r="BL96" s="2">
         <v>27</v>
       </c>
-      <c r="BM96" s="7" t="s">
+      <c r="BM96" s="6" t="s">
         <v>1193</v>
       </c>
       <c r="BN96" s="2">
@@ -27229,7 +27229,7 @@
       <c r="BL97" s="2">
         <v>30</v>
       </c>
-      <c r="BM97" s="7" t="s">
+      <c r="BM97" s="6" t="s">
         <v>1196</v>
       </c>
       <c r="BN97" s="2">
@@ -27268,7 +27268,7 @@
       <c r="BL98" s="2">
         <v>43</v>
       </c>
-      <c r="BM98" s="7" t="s">
+      <c r="BM98" s="6" t="s">
         <v>1198</v>
       </c>
       <c r="BN98" s="2">
@@ -27308,7 +27308,7 @@
       <c r="BL99" s="2">
         <v>165</v>
       </c>
-      <c r="BM99" s="7" t="s">
+      <c r="BM99" s="6" t="s">
         <v>1200</v>
       </c>
       <c r="BN99" s="2">
@@ -27387,7 +27387,7 @@
       <c r="BL101" s="2">
         <v>59</v>
       </c>
-      <c r="BM101" s="7" t="s">
+      <c r="BM101" s="6" t="s">
         <v>1204</v>
       </c>
       <c r="BN101" s="2">
@@ -27426,7 +27426,7 @@
       <c r="BL102" s="2">
         <v>30</v>
       </c>
-      <c r="BM102" s="7" t="s">
+      <c r="BM102" s="6" t="s">
         <v>1206</v>
       </c>
       <c r="BN102" s="2">
@@ -27466,7 +27466,7 @@
       <c r="BL103" s="2">
         <v>155</v>
       </c>
-      <c r="BM103" s="7" t="s">
+      <c r="BM103" s="6" t="s">
         <v>1208</v>
       </c>
       <c r="BN103" s="2">
@@ -27505,7 +27505,7 @@
       <c r="BL104" s="2">
         <v>32</v>
       </c>
-      <c r="BM104" s="7" t="s">
+      <c r="BM104" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="BN104" s="2">
@@ -27544,7 +27544,7 @@
       <c r="BL105" s="2">
         <v>32</v>
       </c>
-      <c r="BM105" s="7" t="s">
+      <c r="BM105" s="6" t="s">
         <v>1212</v>
       </c>
       <c r="BN105" s="2">
@@ -27583,7 +27583,7 @@
       <c r="BL106" s="2">
         <v>30</v>
       </c>
-      <c r="BM106" s="7" t="s">
+      <c r="BM106" s="6" t="s">
         <v>1214</v>
       </c>
       <c r="BN106" s="2">
@@ -27622,7 +27622,7 @@
       <c r="BL107" s="2">
         <v>28</v>
       </c>
-      <c r="BM107" s="7" t="s">
+      <c r="BM107" s="6" t="s">
         <v>1216</v>
       </c>
       <c r="BN107" s="2">
@@ -27662,7 +27662,7 @@
       <c r="BL108" s="2">
         <v>30</v>
       </c>
-      <c r="BM108" s="7" t="s">
+      <c r="BM108" s="6" t="s">
         <v>1218</v>
       </c>
       <c r="BN108" s="2">
@@ -27702,7 +27702,7 @@
       <c r="BL109" s="2">
         <v>33</v>
       </c>
-      <c r="BM109" s="7" t="s">
+      <c r="BM109" s="6" t="s">
         <v>1220</v>
       </c>
       <c r="BN109" s="2">
@@ -27740,7 +27740,7 @@
       <c r="BL110" s="2">
         <v>64</v>
       </c>
-      <c r="BM110" s="7" t="s">
+      <c r="BM110" s="6" t="s">
         <v>1222</v>
       </c>
       <c r="BN110" s="2">
@@ -27779,7 +27779,7 @@
       <c r="BL111" s="2">
         <v>53</v>
       </c>
-      <c r="BM111" s="7" t="s">
+      <c r="BM111" s="6" t="s">
         <v>1224</v>
       </c>
       <c r="BN111" s="2">
@@ -27857,7 +27857,7 @@
       <c r="BL113" s="2">
         <v>51</v>
       </c>
-      <c r="BM113" s="7" t="s">
+      <c r="BM113" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="BN113" s="2">
@@ -27935,7 +27935,7 @@
       <c r="BL115" s="2">
         <v>32</v>
       </c>
-      <c r="BM115" s="7" t="s">
+      <c r="BM115" s="6" t="s">
         <v>1232</v>
       </c>
       <c r="BN115" s="2">
@@ -28093,7 +28093,7 @@
       <c r="BL119" s="2">
         <v>35</v>
       </c>
-      <c r="BM119" s="7" t="s">
+      <c r="BM119" s="6" t="s">
         <v>1241</v>
       </c>
       <c r="BN119" s="2">
@@ -28170,7 +28170,7 @@
       <c r="BL121" s="2">
         <v>44</v>
       </c>
-      <c r="BM121" s="7" t="s">
+      <c r="BM121" s="6" t="s">
         <v>1246</v>
       </c>
       <c r="BN121" s="2">
@@ -28366,7 +28366,7 @@
       <c r="BL126" s="2">
         <v>60</v>
       </c>
-      <c r="BM126" s="7" t="s">
+      <c r="BM126" s="6" t="s">
         <v>1258</v>
       </c>
       <c r="BN126" s="2">
@@ -28798,7 +28798,7 @@
       <c r="BL137" s="2">
         <v>53</v>
       </c>
-      <c r="BM137" s="7" t="s">
+      <c r="BM137" s="6" t="s">
         <v>1283</v>
       </c>
       <c r="BN137" s="2">
@@ -29034,7 +29034,7 @@
       <c r="BL143" s="2">
         <v>32</v>
       </c>
-      <c r="BM143" s="7" t="s">
+      <c r="BM143" s="6" t="s">
         <v>1299</v>
       </c>
       <c r="BN143" s="2">
@@ -29306,7 +29306,7 @@
       <c r="BL150" s="2">
         <v>35</v>
       </c>
-      <c r="BM150" s="7" t="s">
+      <c r="BM150" s="6" t="s">
         <v>1318</v>
       </c>
       <c r="BN150" s="2">
@@ -29621,7 +29621,7 @@
       <c r="BL158" s="2">
         <v>31</v>
       </c>
-      <c r="BM158" s="7" t="s">
+      <c r="BM158" s="6" t="s">
         <v>1337</v>
       </c>
       <c r="BN158" s="2">
@@ -29740,7 +29740,7 @@
       <c r="BL161" s="2">
         <v>47</v>
       </c>
-      <c r="BM161" s="7" t="s">
+      <c r="BM161" s="6" t="s">
         <v>1345</v>
       </c>
       <c r="BN161" s="2">
@@ -42989,12 +42989,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="BI1:BT1"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="AK1:AU1"/>
     <mergeCell ref="AW1:BG1"/>
-    <mergeCell ref="BI1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
